--- a/日本語教育 (2).xlsx
+++ b/日本語教育 (2).xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4" concurrentManualCount="2"/>
+  <calcPr calcId="162913" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="467">
   <si>
     <t>言語一般</t>
   </si>
@@ -1486,6 +1486,317 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>補助動詞</t>
+    <rPh sb="0" eb="2">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ａが私に日本語を教えてくれる</t>
+    <rPh sb="2" eb="3">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＡがＢに日本語を教えてあげる</t>
+    <rPh sb="4" eb="7">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>くれる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あげる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もらう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>尊敬語</t>
+    <rPh sb="0" eb="3">
+      <t>ソンケイゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>謙譲語</t>
+    <rPh sb="0" eb="3">
+      <t>ケンジョウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>くださる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>差し上げる</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>頂く・頂戴する</t>
+    <rPh sb="0" eb="1">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョウダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第二言語習得レベル差の原因</t>
+    <rPh sb="0" eb="2">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウトク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内的要因</t>
+    <rPh sb="0" eb="2">
+      <t>ナイテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動機付け</t>
+    <rPh sb="0" eb="3">
+      <t>ドウキヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>統合的：社会・文化への参加</t>
+    <rPh sb="0" eb="2">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>道具的：就職・昇進</t>
+    <rPh sb="0" eb="2">
+      <t>ドウグ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウショク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内的：学習そのものが楽しい</t>
+    <rPh sb="0" eb="2">
+      <t>ナイテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外的：報酬・賞賛</t>
+    <rPh sb="0" eb="2">
+      <t>ガイテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性格</t>
+    <rPh sb="0" eb="2">
+      <t>セイカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>知能</t>
+    <rPh sb="0" eb="2">
+      <t>チノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>言語適性</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テキセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学習スタイル</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外的要因</t>
+    <rPh sb="0" eb="2">
+      <t>ガイテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他動詞：ヲ格を目的語にとり、かつ、受身文をつくることができる</t>
+  </si>
+  <si>
+    <t>注意：起点のヲ格、通過点のヲ格で、他動詞と判断しないこと</t>
+  </si>
+  <si>
+    <t>（空港を出発する。横断歩道を渡る。　-&gt; 受身文を作れない）</t>
+  </si>
+  <si>
+    <t>自他の対応がある：「開く」「開ける」のように自動詞と他動詞がペアになっている</t>
+  </si>
+  <si>
+    <t>他動詞(原因）</t>
+  </si>
+  <si>
+    <t>自動詞(結果)</t>
+  </si>
+  <si>
+    <t>こぼす</t>
+  </si>
+  <si>
+    <t>こぼれる</t>
+  </si>
+  <si>
+    <t>煮る</t>
+  </si>
+  <si>
+    <t>煮える</t>
+  </si>
+  <si>
+    <t>重ねる</t>
+  </si>
+  <si>
+    <t>重なる</t>
+  </si>
+  <si>
+    <t>自他の対応による分類</t>
+  </si>
+  <si>
+    <t>自他のペア</t>
+  </si>
+  <si>
+    <t>ドアが開く</t>
+  </si>
+  <si>
+    <t>ドアを開ける</t>
+  </si>
+  <si>
+    <t>無対自動詞</t>
+  </si>
+  <si>
+    <t>水が凍る</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>無対他動詞</t>
+  </si>
+  <si>
+    <t>本を読む</t>
+  </si>
+  <si>
+    <t>自他動詞</t>
+  </si>
+  <si>
+    <t>衆議院が解散する</t>
+  </si>
+  <si>
+    <t>衆議院を解散する</t>
+  </si>
+  <si>
+    <t>日本語教育</t>
+  </si>
+  <si>
+    <t>外国語教授法</t>
+  </si>
+  <si>
+    <t>コースデザイン</t>
+  </si>
+  <si>
+    <t>教材分析・教材開発</t>
+  </si>
+  <si>
+    <t>授業実施のサイクル</t>
+  </si>
+  <si>
+    <t>指導法</t>
+  </si>
 </sst>
 </file>
 
@@ -1531,7 +1842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1883,11 +2194,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1928,6 +2284,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2279,10 +2643,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B4:R211"/>
+  <dimension ref="B4:R244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J106" sqref="J106"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159:XFD164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4212,17 +4576,15 @@
     <row r="78" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B78" s="5"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E78" s="20"/>
-      <c r="F78" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4" t="s">
+        <v>438</v>
+      </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -4238,23 +4600,15 @@
       <c r="B79" s="5"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4" t="s">
-        <v>229</v>
-      </c>
+      <c r="E79" s="20"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="4" t="s">
-        <v>230</v>
-      </c>
+      <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
@@ -4267,17 +4621,15 @@
       <c r="B80" s="5"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="20"/>
+      <c r="E80" s="20" t="s">
+        <v>440</v>
+      </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="4" t="s">
-        <v>231</v>
-      </c>
+      <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="4" t="s">
-        <v>232</v>
-      </c>
+      <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
@@ -4291,16 +4643,16 @@
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="20"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
+      <c r="F81" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>442</v>
+      </c>
       <c r="H81" s="4"/>
-      <c r="I81" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
@@ -4314,8 +4666,12 @@
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="20"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+      <c r="F82" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>444</v>
+      </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -4332,22 +4688,16 @@
       <c r="B83" s="5"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="20" t="s">
-        <v>235</v>
-      </c>
+      <c r="E83" s="20"/>
       <c r="F83" s="4" t="s">
-        <v>236</v>
+        <v>445</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>237</v>
+        <v>446</v>
       </c>
       <c r="H83" s="4"/>
-      <c r="I83" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>239</v>
-      </c>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
@@ -4363,18 +4713,14 @@
       <c r="D84" s="4"/>
       <c r="E84" s="20"/>
       <c r="F84" s="4" t="s">
-        <v>240</v>
+        <v>447</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>241</v>
+        <v>448</v>
       </c>
       <c r="H84" s="4"/>
-      <c r="I84" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>243</v>
-      </c>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
@@ -4388,16 +4734,14 @@
       <c r="B85" s="5"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="20"/>
+      <c r="E85" s="20" t="s">
+        <v>449</v>
+      </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>245</v>
-      </c>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
@@ -4412,15 +4756,17 @@
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="20"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="F86" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
@@ -4435,15 +4781,17 @@
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="20"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>249</v>
-      </c>
+      <c r="F87" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
@@ -4458,9 +4806,15 @@
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="20"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
+      <c r="F88" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>457</v>
+      </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -4476,22 +4830,18 @@
       <c r="B89" s="5"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="20" t="s">
-        <v>250</v>
-      </c>
+      <c r="E89" s="20"/>
       <c r="F89" s="4" t="s">
-        <v>251</v>
+        <v>458</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>254</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
@@ -4524,22 +4874,12 @@
       <c r="B91" s="5"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>257</v>
-      </c>
+      <c r="E91" s="20"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
@@ -4552,17 +4892,19 @@
     <row r="92" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B92" s="5"/>
       <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="D92" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="E92" s="20"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+      <c r="F92" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="H92" s="4"/>
-      <c r="I92" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>261</v>
-      </c>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
@@ -4576,15 +4918,23 @@
       <c r="B93" s="5"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="4"/>
+      <c r="E93" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="G93" s="4" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
+      <c r="I93" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
+      <c r="K93" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
@@ -4599,13 +4949,15 @@
       <c r="D94" s="4"/>
       <c r="E94" s="20"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="39" t="s">
-        <v>402</v>
-      </c>
+      <c r="G94" s="4"/>
       <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
+      <c r="I94" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
+      <c r="K94" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
@@ -4622,9 +4974,13 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
+      <c r="I95" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
+      <c r="K95" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
@@ -4637,9 +4993,7 @@
       <c r="B96" s="5"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="20" t="s">
-        <v>263</v>
-      </c>
+      <c r="E96" s="20"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -4658,15 +5012,21 @@
       <c r="B97" s="5"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+      <c r="E97" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
@@ -4682,14 +5042,18 @@
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="20"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="F98" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -4709,10 +5073,10 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -4731,8 +5095,12 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
+      <c r="I100" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
@@ -4746,14 +5114,16 @@
       <c r="B101" s="5"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="20" t="s">
-        <v>270</v>
-      </c>
+      <c r="E101" s="20"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
+      <c r="I101" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
@@ -4768,18 +5138,10 @@
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="20"/>
-      <c r="F102" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I102" s="39" t="s">
-        <v>408</v>
-      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
@@ -4794,18 +5156,22 @@
       <c r="B103" s="5"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="4"/>
+      <c r="E103" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="G103" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="I103" s="39" t="s">
-        <v>409</v>
-      </c>
-      <c r="J103" s="4"/>
+        <v>252</v>
+      </c>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
@@ -4820,18 +5186,10 @@
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="20"/>
-      <c r="F104" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="I104" s="39" t="s">
-        <v>413</v>
-      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
@@ -4846,12 +5204,22 @@
       <c r="B105" s="5"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
+      <c r="E105" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
+      <c r="I105" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
@@ -4869,8 +5237,12 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
+      <c r="I106" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>261</v>
+      </c>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
@@ -4883,12 +5255,12 @@
     <row r="107" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B107" s="5"/>
       <c r="C107" s="4"/>
-      <c r="D107" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="D107" s="4"/>
       <c r="E107" s="20"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+      <c r="G107" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
@@ -4904,12 +5276,12 @@
     <row r="108" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B108" s="5"/>
       <c r="C108" s="4"/>
-      <c r="D108" s="4" t="s">
-        <v>272</v>
-      </c>
+      <c r="D108" s="4"/>
       <c r="E108" s="20"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="G108" s="39" t="s">
+        <v>402</v>
+      </c>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
@@ -4925,9 +5297,7 @@
     <row r="109" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B109" s="5"/>
       <c r="C109" s="4"/>
-      <c r="D109" s="4" t="s">
-        <v>273</v>
-      </c>
+      <c r="D109" s="4"/>
       <c r="E109" s="20"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -4946,10 +5316,10 @@
     <row r="110" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B110" s="5"/>
       <c r="C110" s="4"/>
-      <c r="D110" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="20" t="s">
+        <v>263</v>
+      </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -4968,14 +5338,16 @@
       <c r="B111" s="5"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="4" t="s">
-        <v>275</v>
-      </c>
+      <c r="E111" s="20"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
+      <c r="I111" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
@@ -4989,14 +5361,16 @@
       <c r="B112" s="5"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="4" t="s">
-        <v>276</v>
-      </c>
+      <c r="E112" s="20"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
+      <c r="I112" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
@@ -5010,16 +5384,16 @@
       <c r="B113" s="5"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>278</v>
-      </c>
+      <c r="E113" s="20"/>
+      <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
+      <c r="I113" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
@@ -5033,12 +5407,8 @@
       <c r="B114" s="5"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>280</v>
-      </c>
+      <c r="E114" s="20"/>
+      <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
@@ -5054,11 +5424,11 @@
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B115" s="5"/>
-      <c r="C115" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="C115" s="4"/>
       <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
+      <c r="E115" s="20" t="s">
+        <v>270</v>
+      </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -5076,17 +5446,27 @@
     <row r="116" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B116" s="5"/>
       <c r="C116" s="4"/>
-      <c r="D116" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="I116" s="39" t="s">
+        <v>408</v>
+      </c>
       <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
+      <c r="K116" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="L116" s="39" t="s">
+        <v>415</v>
+      </c>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -5097,17 +5477,23 @@
     <row r="117" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B117" s="5"/>
       <c r="C117" s="4"/>
-      <c r="D117" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="20"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
+      <c r="G117" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="I117" s="39" t="s">
+        <v>409</v>
+      </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
+      <c r="L117" s="39" t="s">
+        <v>416</v>
+      </c>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -5119,15 +5505,19 @@
       <c r="B118" s="5"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F118" s="4"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="G118" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
+        <v>411</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="I118" s="39" t="s">
+        <v>413</v>
+      </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
@@ -5142,7 +5532,7 @@
       <c r="B119" s="5"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
+      <c r="E119" s="20"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -5157,17 +5547,19 @@
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
     </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B120" s="5"/>
       <c r="C120" s="4"/>
-      <c r="D120" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="20"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
+      <c r="G120" s="40"/>
+      <c r="H120" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="I120" s="41" t="s">
+        <v>421</v>
+      </c>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
@@ -5178,19 +5570,19 @@
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:18" ht="12.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B121" s="5"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="E121" s="20"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
+      <c r="G121" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="H121" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="I121" s="43"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
@@ -5205,15 +5597,15 @@
       <c r="B122" s="5"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="4" t="s">
-        <v>289</v>
-      </c>
+      <c r="E122" s="20"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
+      <c r="G122" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="H122" s="45"/>
+      <c r="I122" s="44" t="s">
+        <v>423</v>
+      </c>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
@@ -5228,13 +5620,15 @@
       <c r="B123" s="5"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="20" t="s">
-        <v>291</v>
-      </c>
+      <c r="E123" s="20"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
+      <c r="G123" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="H123" s="47"/>
+      <c r="I123" s="46" t="s">
+        <v>424</v>
+      </c>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
@@ -5248,13 +5642,12 @@
     <row r="124" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B124" s="5"/>
       <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="D124" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E124" s="20"/>
+      <c r="F124" s="4"/>
       <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
@@ -5269,8 +5662,10 @@
     <row r="125" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B125" s="5"/>
       <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
+      <c r="D125" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E125" s="20"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -5289,9 +5684,9 @@
       <c r="B126" s="5"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E126" s="4"/>
+        <v>273</v>
+      </c>
+      <c r="E126" s="20"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -5309,13 +5704,11 @@
     <row r="127" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B127" s="5"/>
       <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>295</v>
-      </c>
+      <c r="D127" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
@@ -5334,11 +5727,9 @@
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>297</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
@@ -5352,16 +5743,14 @@
       <c r="Q128" s="4"/>
       <c r="R128" s="4"/>
     </row>
-    <row r="129" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B129" s="5"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>299</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
@@ -5380,15 +5769,13 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="G130" s="4"/>
-      <c r="H130" s="4" t="s">
-        <v>302</v>
-      </c>
+      <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
@@ -5404,16 +5791,14 @@
       <c r="B131" s="5"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
+      <c r="E131" s="20" t="s">
+        <v>279</v>
+      </c>
       <c r="F131" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>305</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
@@ -5427,16 +5812,14 @@
     </row>
     <row r="132" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B132" s="5"/>
-      <c r="C132" s="4"/>
+      <c r="C132" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>307</v>
-      </c>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
@@ -5451,15 +5834,13 @@
     <row r="133" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B133" s="5"/>
       <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
+      <c r="D133" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
-      <c r="G133" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>309</v>
-      </c>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
@@ -5475,7 +5856,7 @@
       <c r="B134" s="5"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -5495,12 +5876,14 @@
     <row r="135" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B135" s="5"/>
       <c r="C135" s="4"/>
-      <c r="D135" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
+      <c r="G135" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
@@ -5516,9 +5899,7 @@
     <row r="136" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B136" s="5"/>
       <c r="C136" s="4"/>
-      <c r="D136" s="4" t="s">
-        <v>312</v>
-      </c>
+      <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
@@ -5538,7 +5919,7 @@
       <c r="B137" s="5"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -5557,13 +5938,15 @@
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B138" s="5"/>
-      <c r="C138" s="4" t="s">
-        <v>314</v>
-      </c>
+      <c r="C138" s="4"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
+      <c r="E138" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
+      <c r="G138" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
@@ -5577,51 +5960,57 @@
       <c r="R138" s="4"/>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B139" s="34"/>
-      <c r="C139" s="35"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="35"/>
-      <c r="F139" s="35"/>
-      <c r="G139" s="35"/>
-      <c r="H139" s="35"/>
-      <c r="I139" s="35"/>
-      <c r="J139" s="35"/>
-      <c r="K139" s="35"/>
-      <c r="L139" s="35"/>
-      <c r="M139" s="35"/>
-      <c r="N139" s="35"/>
-      <c r="O139" s="35"/>
-      <c r="P139" s="29"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="6"/>
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
     </row>
     <row r="140" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B140" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
-      <c r="P140" s="3"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="4"/>
+      <c r="R140" s="4"/>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B141" s="5"/>
-      <c r="C141" s="4" t="s">
-        <v>316</v>
-      </c>
+      <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
+      <c r="F141" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
@@ -5632,6 +6021,8 @@
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
       <c r="P141" s="6"/>
+      <c r="Q141" s="4"/>
+      <c r="R141" s="4"/>
     </row>
     <row r="142" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B142" s="5"/>
@@ -5649,13 +6040,15 @@
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
       <c r="P142" s="6"/>
+      <c r="Q142" s="4"/>
+      <c r="R142" s="4"/>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B143" s="5"/>
-      <c r="C143" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
@@ -5668,51 +6061,65 @@
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
       <c r="P143" s="6"/>
+      <c r="Q143" s="4"/>
+      <c r="R143" s="4"/>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B144" s="34"/>
-      <c r="C144" s="35"/>
-      <c r="D144" s="35"/>
-      <c r="E144" s="35"/>
-      <c r="F144" s="35"/>
-      <c r="G144" s="35"/>
-      <c r="H144" s="35"/>
-      <c r="I144" s="35"/>
-      <c r="J144" s="35"/>
-      <c r="K144" s="35"/>
-      <c r="L144" s="35"/>
-      <c r="M144" s="35"/>
-      <c r="N144" s="35"/>
-      <c r="O144" s="35"/>
-      <c r="P144" s="29"/>
-    </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B145" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
-      <c r="P145" s="3"/>
-    </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B144" s="5"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="4"/>
+      <c r="R144" s="4"/>
+    </row>
+    <row r="145" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B145" s="5"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="4"/>
+    </row>
+    <row r="146" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B146" s="5"/>
-      <c r="C146" s="4" t="s">
-        <v>319</v>
-      </c>
+      <c r="C146" s="4"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
+      <c r="E146" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
@@ -5723,15 +6130,23 @@
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
       <c r="P146" s="6"/>
-    </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="Q146" s="4"/>
+      <c r="R146" s="4"/>
+    </row>
+    <row r="147" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B147" s="5"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
+      <c r="E147" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
+      <c r="H147" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
@@ -5740,17 +6155,23 @@
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
       <c r="P147" s="6"/>
-    </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="Q147" s="4"/>
+      <c r="R147" s="4"/>
+    </row>
+    <row r="148" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B148" s="5"/>
-      <c r="C148" s="4" t="s">
-        <v>320</v>
-      </c>
+      <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
+      <c r="F148" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
@@ -5759,49 +6180,61 @@
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
       <c r="P148" s="6"/>
-    </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B149" s="34"/>
-      <c r="C149" s="35"/>
-      <c r="D149" s="35"/>
-      <c r="E149" s="35"/>
-      <c r="F149" s="35"/>
-      <c r="G149" s="35"/>
-      <c r="H149" s="35"/>
-      <c r="I149" s="35"/>
-      <c r="J149" s="35"/>
-      <c r="K149" s="35"/>
-      <c r="L149" s="35"/>
-      <c r="M149" s="35"/>
-      <c r="N149" s="35"/>
-      <c r="O149" s="35"/>
-      <c r="P149" s="29"/>
-    </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B150" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-      <c r="P150" s="3"/>
-    </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+    </row>
+    <row r="149" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B149" s="5"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="4"/>
+      <c r="R149" s="4"/>
+    </row>
+    <row r="150" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B150" s="5"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4"/>
+    </row>
+    <row r="151" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B151" s="5"/>
-      <c r="C151" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
@@ -5814,11 +6247,15 @@
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
       <c r="P151" s="6"/>
-    </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="Q151" s="4"/>
+      <c r="R151" s="4"/>
+    </row>
+    <row r="152" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B152" s="5"/>
       <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
+      <c r="D152" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
@@ -5831,13 +6268,15 @@
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
       <c r="P152" s="6"/>
-    </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="Q152" s="4"/>
+      <c r="R152" s="4"/>
+    </row>
+    <row r="153" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B153" s="5"/>
-      <c r="C153" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
@@ -5850,83 +6289,93 @@
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
       <c r="P153" s="6"/>
-    </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B154" s="34"/>
-      <c r="C154" s="35"/>
-      <c r="D154" s="35"/>
-      <c r="E154" s="35"/>
-      <c r="F154" s="35"/>
-      <c r="G154" s="35"/>
-      <c r="H154" s="35"/>
-      <c r="I154" s="35"/>
-      <c r="J154" s="35"/>
-      <c r="K154" s="35"/>
-      <c r="L154" s="35"/>
-      <c r="M154" s="35"/>
-      <c r="N154" s="35"/>
-      <c r="O154" s="35"/>
-      <c r="P154" s="29"/>
-    </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B155" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
-      <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
-      <c r="P155" s="3"/>
-    </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B156" s="5"/>
-      <c r="C156" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="4"/>
-      <c r="P156" s="6"/>
-    </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B157" s="5"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
-      <c r="M157" s="4"/>
-      <c r="N157" s="4"/>
-      <c r="O157" s="4"/>
-      <c r="P157" s="6"/>
-    </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="Q153" s="4"/>
+      <c r="R153" s="4"/>
+    </row>
+    <row r="154" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B154" s="5"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="4"/>
+      <c r="R154" s="4"/>
+    </row>
+    <row r="155" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B155" s="5"/>
+      <c r="C155" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="4"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="4"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="4"/>
+      <c r="R155" s="4"/>
+    </row>
+    <row r="156" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B156" s="34"/>
+      <c r="C156" s="35"/>
+      <c r="D156" s="35"/>
+      <c r="E156" s="35"/>
+      <c r="F156" s="35"/>
+      <c r="G156" s="35"/>
+      <c r="H156" s="35"/>
+      <c r="I156" s="35"/>
+      <c r="J156" s="35"/>
+      <c r="K156" s="35"/>
+      <c r="L156" s="35"/>
+      <c r="M156" s="35"/>
+      <c r="N156" s="35"/>
+      <c r="O156" s="35"/>
+      <c r="P156" s="29"/>
+      <c r="Q156" s="4"/>
+      <c r="R156" s="4"/>
+    </row>
+    <row r="157" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B157" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+      <c r="P157" s="3"/>
+    </row>
+    <row r="158" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B158" s="5"/>
       <c r="C158" s="4" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -5942,48 +6391,50 @@
       <c r="O158" s="4"/>
       <c r="P158" s="6"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B159" s="34"/>
-      <c r="C159" s="35"/>
-      <c r="D159" s="35"/>
-      <c r="E159" s="35"/>
-      <c r="F159" s="35"/>
-      <c r="G159" s="35"/>
-      <c r="H159" s="35"/>
-      <c r="I159" s="35"/>
-      <c r="J159" s="35"/>
-      <c r="K159" s="35"/>
-      <c r="L159" s="35"/>
-      <c r="M159" s="35"/>
-      <c r="N159" s="35"/>
-      <c r="O159" s="35"/>
-      <c r="P159" s="29"/>
-    </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B160" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
-      <c r="L160" s="2"/>
-      <c r="M160" s="2"/>
-      <c r="N160" s="2"/>
-      <c r="O160" s="2"/>
-      <c r="P160" s="3"/>
+    <row r="159" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B159" s="5"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
+      <c r="O159" s="4"/>
+      <c r="P159" s="6"/>
+    </row>
+    <row r="160" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B160" s="5"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="4"/>
+      <c r="O160" s="4"/>
+      <c r="P160" s="6"/>
     </row>
     <row r="161" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B161" s="5"/>
-      <c r="C161" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4" t="s">
+        <v>463</v>
+      </c>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
@@ -6001,17 +6452,11 @@
       <c r="B162" s="5"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>332</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
@@ -6025,12 +6470,12 @@
     <row r="163" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B163" s="5"/>
       <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
+      <c r="D163" s="4" t="s">
+        <v>465</v>
+      </c>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
-      <c r="G163" s="4" t="s">
-        <v>333</v>
-      </c>
+      <c r="G163" s="4"/>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
@@ -6044,12 +6489,12 @@
     <row r="164" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B164" s="5"/>
       <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
+      <c r="D164" s="4" t="s">
+        <v>466</v>
+      </c>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
-      <c r="G164" s="4" t="s">
-        <v>334</v>
-      </c>
+      <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
@@ -6060,14 +6505,12 @@
       <c r="O164" s="4"/>
       <c r="P164" s="6"/>
     </row>
-    <row r="165" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B165" s="5"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
-      <c r="F165" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
@@ -6079,16 +6522,12 @@
       <c r="O165" s="4"/>
       <c r="P165" s="6"/>
     </row>
-    <row r="166" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B166" s="5"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>337</v>
-      </c>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
@@ -6102,12 +6541,12 @@
     </row>
     <row r="167" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B167" s="5"/>
-      <c r="C167" s="4"/>
+      <c r="C167" s="4" t="s">
+        <v>317</v>
+      </c>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
-      <c r="F167" s="4" t="s">
-        <v>338</v>
-      </c>
+      <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
@@ -6120,55 +6559,49 @@
       <c r="P167" s="6"/>
     </row>
     <row r="168" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B168" s="5"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
-      <c r="M168" s="4"/>
-      <c r="N168" s="4"/>
-      <c r="O168" s="4"/>
-      <c r="P168" s="6"/>
+      <c r="B168" s="34"/>
+      <c r="C168" s="35"/>
+      <c r="D168" s="35"/>
+      <c r="E168" s="35"/>
+      <c r="F168" s="35"/>
+      <c r="G168" s="35"/>
+      <c r="H168" s="35"/>
+      <c r="I168" s="35"/>
+      <c r="J168" s="35"/>
+      <c r="K168" s="35"/>
+      <c r="L168" s="35"/>
+      <c r="M168" s="35"/>
+      <c r="N168" s="35"/>
+      <c r="O168" s="35"/>
+      <c r="P168" s="29"/>
     </row>
     <row r="169" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B169" s="5"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
-      <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
-      <c r="M169" s="4"/>
-      <c r="N169" s="4"/>
-      <c r="O169" s="4"/>
-      <c r="P169" s="6"/>
+      <c r="B169" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="3"/>
     </row>
     <row r="170" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B170" s="5"/>
-      <c r="C170" s="4"/>
+      <c r="C170" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="D170" s="4"/>
-      <c r="E170" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>343</v>
-      </c>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
@@ -6199,13 +6632,11 @@
     </row>
     <row r="172" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B172" s="5"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>345</v>
-      </c>
+      <c r="C172" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
@@ -6222,14 +6653,20 @@
       <c r="B173" s="5"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
-      <c r="E173" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
+      <c r="H173" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="J173" s="39" t="s">
+        <v>428</v>
+      </c>
       <c r="K173" s="4"/>
       <c r="L173" s="4"/>
       <c r="M173" s="4"/>
@@ -6243,12 +6680,12 @@
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
-      <c r="G174" s="4" t="s">
-        <v>347</v>
-      </c>
+      <c r="G174" s="4"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
+      <c r="J174" s="4" t="s">
+        <v>429</v>
+      </c>
       <c r="K174" s="4"/>
       <c r="L174" s="4"/>
       <c r="M174" s="4"/>
@@ -6262,12 +6699,12 @@
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
-      <c r="G175" s="4" t="s">
-        <v>348</v>
-      </c>
+      <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
+      <c r="J175" s="4" t="s">
+        <v>430</v>
+      </c>
       <c r="K175" s="4"/>
       <c r="L175" s="4"/>
       <c r="M175" s="4"/>
@@ -6280,13 +6717,13 @@
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
-      <c r="F176" s="4" t="s">
-        <v>349</v>
-      </c>
+      <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
+      <c r="J176" s="39" t="s">
+        <v>431</v>
+      </c>
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
       <c r="M176" s="4"/>
@@ -6302,7 +6739,9 @@
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
-      <c r="I177" s="4"/>
+      <c r="I177" s="4" t="s">
+        <v>432</v>
+      </c>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
@@ -6319,7 +6758,9 @@
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
-      <c r="I178" s="4"/>
+      <c r="I178" s="4" t="s">
+        <v>433</v>
+      </c>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
@@ -6336,7 +6777,9 @@
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
-      <c r="I179" s="4"/>
+      <c r="I179" s="4" t="s">
+        <v>434</v>
+      </c>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
       <c r="L179" s="4"/>
@@ -6353,7 +6796,9 @@
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
-      <c r="I180" s="4"/>
+      <c r="I180" s="39" t="s">
+        <v>435</v>
+      </c>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
@@ -6365,166 +6810,104 @@
     <row r="181" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B181" s="5"/>
       <c r="C181" s="4"/>
-      <c r="D181" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="E181" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="F181" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="G181" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="H181" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="I181" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="J181" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="K181" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="L181" s="37"/>
-      <c r="M181" s="37"/>
-      <c r="N181" s="37"/>
-      <c r="O181" s="26" t="s">
-        <v>358</v>
-      </c>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+      <c r="K181" s="4"/>
+      <c r="L181" s="4"/>
+      <c r="M181" s="4"/>
+      <c r="N181" s="4"/>
+      <c r="O181" s="4"/>
       <c r="P181" s="6"/>
     </row>
     <row r="182" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B182" s="5"/>
-      <c r="C182" s="4"/>
-      <c r="D182" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="F182" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="G182" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="H182" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="I182" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="J182" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="K182" s="4"/>
-      <c r="L182" s="4"/>
-      <c r="M182" s="4"/>
-      <c r="N182" s="4"/>
-      <c r="O182" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="P182" s="6"/>
+      <c r="B182" s="34"/>
+      <c r="C182" s="35"/>
+      <c r="D182" s="35"/>
+      <c r="E182" s="35"/>
+      <c r="F182" s="35"/>
+      <c r="G182" s="35"/>
+      <c r="H182" s="35"/>
+      <c r="I182" s="35"/>
+      <c r="J182" s="35"/>
+      <c r="K182" s="35"/>
+      <c r="L182" s="35"/>
+      <c r="M182" s="35"/>
+      <c r="N182" s="35"/>
+      <c r="O182" s="35"/>
+      <c r="P182" s="29"/>
     </row>
     <row r="183" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B183" s="5"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E183" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="F183" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="G183" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="H183" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="I183" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="J183" s="4"/>
-      <c r="K183" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="L183" s="4"/>
-      <c r="M183" s="4"/>
-      <c r="N183" s="4"/>
-      <c r="O183" s="6"/>
-      <c r="P183" s="6"/>
+      <c r="B183" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+      <c r="P183" s="3"/>
     </row>
     <row r="184" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B184" s="5"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="F184" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="G184" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H184" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="I184" s="4" t="s">
-        <v>376</v>
-      </c>
+      <c r="C184" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
       <c r="L184" s="4"/>
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
-      <c r="O184" s="6"/>
+      <c r="O184" s="4"/>
       <c r="P184" s="6"/>
     </row>
     <row r="185" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B185" s="5"/>
       <c r="C185" s="4"/>
-      <c r="D185" s="34"/>
-      <c r="E185" s="29"/>
-      <c r="F185" s="30" t="s">
-        <v>377</v>
-      </c>
-      <c r="G185" s="34"/>
-      <c r="H185" s="35" t="s">
-        <v>378</v>
-      </c>
-      <c r="I185" s="35"/>
-      <c r="J185" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="K185" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="L185" s="35"/>
-      <c r="M185" s="35"/>
-      <c r="N185" s="35"/>
-      <c r="O185" s="29"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
+      <c r="K185" s="4"/>
+      <c r="L185" s="4"/>
+      <c r="M185" s="4"/>
+      <c r="N185" s="4"/>
+      <c r="O185" s="4"/>
       <c r="P185" s="6"/>
     </row>
     <row r="186" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B186" s="5"/>
-      <c r="C186" s="4"/>
+      <c r="C186" s="4" t="s">
+        <v>323</v>
+      </c>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
-      <c r="H186" s="4" t="s">
-        <v>381</v>
-      </c>
+      <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
@@ -6535,57 +6918,51 @@
       <c r="P186" s="6"/>
     </row>
     <row r="187" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B187" s="5"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
-      <c r="F187" s="4"/>
-      <c r="G187" s="4"/>
-      <c r="H187" s="4"/>
-      <c r="I187" s="4"/>
-      <c r="J187" s="4"/>
-      <c r="K187" s="4"/>
-      <c r="L187" s="4"/>
-      <c r="M187" s="4"/>
-      <c r="N187" s="4"/>
-      <c r="O187" s="4"/>
-      <c r="P187" s="6"/>
+      <c r="B187" s="34"/>
+      <c r="C187" s="35"/>
+      <c r="D187" s="35"/>
+      <c r="E187" s="35"/>
+      <c r="F187" s="35"/>
+      <c r="G187" s="35"/>
+      <c r="H187" s="35"/>
+      <c r="I187" s="35"/>
+      <c r="J187" s="35"/>
+      <c r="K187" s="35"/>
+      <c r="L187" s="35"/>
+      <c r="M187" s="35"/>
+      <c r="N187" s="35"/>
+      <c r="O187" s="35"/>
+      <c r="P187" s="29"/>
     </row>
     <row r="188" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B188" s="5"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
-      <c r="H188" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="I188" s="4"/>
-      <c r="J188" s="4"/>
-      <c r="K188" s="4"/>
-      <c r="L188" s="4"/>
-      <c r="M188" s="4"/>
-      <c r="N188" s="4"/>
-      <c r="O188" s="4"/>
-      <c r="P188" s="6"/>
+      <c r="B188" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
+      <c r="O188" s="2"/>
+      <c r="P188" s="3"/>
     </row>
     <row r="189" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B189" s="5"/>
-      <c r="C189" s="4"/>
+      <c r="C189" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="D189" s="4"/>
-      <c r="E189" s="4" t="s">
-        <v>385</v>
-      </c>
+      <c r="E189" s="4"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
-      <c r="H189" s="4" t="s">
-        <v>386</v>
-      </c>
+      <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
@@ -6614,23 +6991,15 @@
     </row>
     <row r="191" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B191" s="5"/>
-      <c r="C191" s="4"/>
+      <c r="C191" s="4" t="s">
+        <v>326</v>
+      </c>
       <c r="D191" s="4"/>
-      <c r="E191" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F191" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="G191" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="H191" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="I191" s="4" t="s">
-        <v>391</v>
-      </c>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
       <c r="L191" s="4"/>
@@ -6640,56 +7009,48 @@
       <c r="P191" s="6"/>
     </row>
     <row r="192" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B192" s="5"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="G192" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="H192" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="I192" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="J192" s="4"/>
-      <c r="K192" s="4"/>
-      <c r="L192" s="4"/>
-      <c r="M192" s="4"/>
-      <c r="N192" s="4"/>
-      <c r="O192" s="4"/>
-      <c r="P192" s="6"/>
+      <c r="B192" s="34"/>
+      <c r="C192" s="35"/>
+      <c r="D192" s="35"/>
+      <c r="E192" s="35"/>
+      <c r="F192" s="35"/>
+      <c r="G192" s="35"/>
+      <c r="H192" s="35"/>
+      <c r="I192" s="35"/>
+      <c r="J192" s="35"/>
+      <c r="K192" s="35"/>
+      <c r="L192" s="35"/>
+      <c r="M192" s="35"/>
+      <c r="N192" s="35"/>
+      <c r="O192" s="35"/>
+      <c r="P192" s="29"/>
     </row>
     <row r="193" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B193" s="5"/>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
-      <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
-      <c r="H193" s="4"/>
-      <c r="I193" s="4"/>
-      <c r="J193" s="4"/>
-      <c r="K193" s="4"/>
-      <c r="L193" s="4"/>
-      <c r="M193" s="4"/>
-      <c r="N193" s="4"/>
-      <c r="O193" s="4"/>
-      <c r="P193" s="6"/>
+      <c r="B193" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="3"/>
     </row>
     <row r="194" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B194" s="5"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>397</v>
-      </c>
+      <c r="C194" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
@@ -6705,10 +7066,18 @@
     <row r="195" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B195" s="5"/>
       <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
+      <c r="D195" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
@@ -6722,14 +7091,12 @@
     <row r="196" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B196" s="5"/>
       <c r="C196" s="4"/>
-      <c r="D196" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>399</v>
-      </c>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
       <c r="F196" s="4"/>
-      <c r="G196" s="4"/>
+      <c r="G196" s="4" t="s">
+        <v>333</v>
+      </c>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
@@ -6746,7 +7113,9 @@
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
-      <c r="G197" s="4"/>
+      <c r="G197" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
@@ -6757,12 +7126,14 @@
       <c r="O197" s="4"/>
       <c r="P197" s="6"/>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B198" s="5"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
-      <c r="F198" s="4"/>
+      <c r="F198" s="4" t="s">
+        <v>335</v>
+      </c>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
@@ -6774,12 +7145,16 @@
       <c r="O198" s="4"/>
       <c r="P198" s="6"/>
     </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B199" s="5"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="4"/>
+      <c r="E199" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
@@ -6792,46 +7167,52 @@
       <c r="P199" s="6"/>
     </row>
     <row r="200" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B200" s="34"/>
-      <c r="C200" s="35"/>
-      <c r="D200" s="35"/>
-      <c r="E200" s="35"/>
-      <c r="F200" s="35"/>
-      <c r="G200" s="35"/>
-      <c r="H200" s="35"/>
-      <c r="I200" s="35"/>
-      <c r="J200" s="35"/>
-      <c r="K200" s="35"/>
-      <c r="L200" s="35"/>
-      <c r="M200" s="35"/>
-      <c r="N200" s="35"/>
-      <c r="O200" s="35"/>
-      <c r="P200" s="29"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
+      <c r="J200" s="4"/>
+      <c r="K200" s="4"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
+      <c r="O200" s="4"/>
+      <c r="P200" s="6"/>
     </row>
     <row r="201" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B201" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
-      <c r="J201" s="2"/>
-      <c r="K201" s="2"/>
-      <c r="L201" s="2"/>
-      <c r="M201" s="2"/>
-      <c r="N201" s="2"/>
-      <c r="O201" s="2"/>
-      <c r="P201" s="3"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+      <c r="J201" s="4"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="4"/>
+      <c r="M201" s="4"/>
+      <c r="N201" s="4"/>
+      <c r="O201" s="4"/>
+      <c r="P201" s="6"/>
     </row>
     <row r="202" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B202" s="5"/>
       <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
-      <c r="E202" s="4"/>
+      <c r="D202" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
@@ -6848,8 +7229,12 @@
       <c r="B203" s="5"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
+      <c r="E203" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>343</v>
+      </c>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
@@ -6881,8 +7266,12 @@
     <row r="205" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B205" s="5"/>
       <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="4"/>
+      <c r="D205" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
@@ -6899,7 +7288,9 @@
       <c r="B206" s="5"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
+      <c r="E206" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
@@ -6918,7 +7309,9 @@
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
-      <c r="G207" s="4"/>
+      <c r="G207" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
@@ -6930,24 +7323,697 @@
       <c r="P207" s="6"/>
     </row>
     <row r="208" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B208" s="34"/>
-      <c r="C208" s="35"/>
-      <c r="D208" s="35"/>
-      <c r="E208" s="35"/>
-      <c r="F208" s="35"/>
-      <c r="G208" s="35"/>
-      <c r="H208" s="35"/>
-      <c r="I208" s="35"/>
-      <c r="J208" s="35"/>
-      <c r="K208" s="35"/>
-      <c r="L208" s="35"/>
-      <c r="M208" s="35"/>
-      <c r="N208" s="35"/>
-      <c r="O208" s="35"/>
-      <c r="P208" s="29"/>
-    </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C211" t="s">
+      <c r="B208" s="5"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
+      <c r="K208" s="4"/>
+      <c r="L208" s="4"/>
+      <c r="M208" s="4"/>
+      <c r="N208" s="4"/>
+      <c r="O208" s="4"/>
+      <c r="P208" s="6"/>
+    </row>
+    <row r="209" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B209" s="5"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+      <c r="I209" s="4"/>
+      <c r="J209" s="4"/>
+      <c r="K209" s="4"/>
+      <c r="L209" s="4"/>
+      <c r="M209" s="4"/>
+      <c r="N209" s="4"/>
+      <c r="O209" s="4"/>
+      <c r="P209" s="6"/>
+    </row>
+    <row r="210" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B210" s="5"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
+      <c r="I210" s="4"/>
+      <c r="J210" s="4"/>
+      <c r="K210" s="4"/>
+      <c r="L210" s="4"/>
+      <c r="M210" s="4"/>
+      <c r="N210" s="4"/>
+      <c r="O210" s="4"/>
+      <c r="P210" s="6"/>
+    </row>
+    <row r="211" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B211" s="5"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="4"/>
+      <c r="J211" s="4"/>
+      <c r="K211" s="4"/>
+      <c r="L211" s="4"/>
+      <c r="M211" s="4"/>
+      <c r="N211" s="4"/>
+      <c r="O211" s="4"/>
+      <c r="P211" s="6"/>
+    </row>
+    <row r="212" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B212" s="5"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
+      <c r="I212" s="4"/>
+      <c r="J212" s="4"/>
+      <c r="K212" s="4"/>
+      <c r="L212" s="4"/>
+      <c r="M212" s="4"/>
+      <c r="N212" s="4"/>
+      <c r="O212" s="4"/>
+      <c r="P212" s="6"/>
+    </row>
+    <row r="213" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B213" s="5"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="4"/>
+      <c r="J213" s="4"/>
+      <c r="K213" s="4"/>
+      <c r="L213" s="4"/>
+      <c r="M213" s="4"/>
+      <c r="N213" s="4"/>
+      <c r="O213" s="4"/>
+      <c r="P213" s="6"/>
+    </row>
+    <row r="214" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B214" s="5"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="E214" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="F214" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="G214" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="H214" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="I214" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="J214" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="K214" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="L214" s="37"/>
+      <c r="M214" s="37"/>
+      <c r="N214" s="37"/>
+      <c r="O214" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="P214" s="6"/>
+    </row>
+    <row r="215" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B215" s="5"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F215" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I215" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="J215" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="K215" s="4"/>
+      <c r="L215" s="4"/>
+      <c r="M215" s="4"/>
+      <c r="N215" s="4"/>
+      <c r="O215" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="P215" s="6"/>
+    </row>
+    <row r="216" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B216" s="5"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F216" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="G216" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="I216" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J216" s="4"/>
+      <c r="K216" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="L216" s="4"/>
+      <c r="M216" s="4"/>
+      <c r="N216" s="4"/>
+      <c r="O216" s="6"/>
+      <c r="P216" s="6"/>
+    </row>
+    <row r="217" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B217" s="5"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F217" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="G217" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I217" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="J217" s="4"/>
+      <c r="K217" s="4"/>
+      <c r="L217" s="4"/>
+      <c r="M217" s="4"/>
+      <c r="N217" s="4"/>
+      <c r="O217" s="6"/>
+      <c r="P217" s="6"/>
+    </row>
+    <row r="218" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B218" s="5"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="34"/>
+      <c r="E218" s="29"/>
+      <c r="F218" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="G218" s="34"/>
+      <c r="H218" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="I218" s="35"/>
+      <c r="J218" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="K218" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="L218" s="35"/>
+      <c r="M218" s="35"/>
+      <c r="N218" s="35"/>
+      <c r="O218" s="29"/>
+      <c r="P218" s="6"/>
+    </row>
+    <row r="219" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B219" s="5"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I219" s="4"/>
+      <c r="J219" s="4"/>
+      <c r="K219" s="4"/>
+      <c r="L219" s="4"/>
+      <c r="M219" s="4"/>
+      <c r="N219" s="4"/>
+      <c r="O219" s="4"/>
+      <c r="P219" s="6"/>
+    </row>
+    <row r="220" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B220" s="5"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+      <c r="H220" s="4"/>
+      <c r="I220" s="4"/>
+      <c r="J220" s="4"/>
+      <c r="K220" s="4"/>
+      <c r="L220" s="4"/>
+      <c r="M220" s="4"/>
+      <c r="N220" s="4"/>
+      <c r="O220" s="4"/>
+      <c r="P220" s="6"/>
+    </row>
+    <row r="221" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B221" s="5"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+      <c r="H221" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I221" s="4"/>
+      <c r="J221" s="4"/>
+      <c r="K221" s="4"/>
+      <c r="L221" s="4"/>
+      <c r="M221" s="4"/>
+      <c r="N221" s="4"/>
+      <c r="O221" s="4"/>
+      <c r="P221" s="6"/>
+    </row>
+    <row r="222" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B222" s="5"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="H222" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="I222" s="4"/>
+      <c r="J222" s="4"/>
+      <c r="K222" s="4"/>
+      <c r="L222" s="4"/>
+      <c r="M222" s="4"/>
+      <c r="N222" s="4"/>
+      <c r="O222" s="4"/>
+      <c r="P222" s="6"/>
+    </row>
+    <row r="223" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B223" s="5"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="H223" s="4"/>
+      <c r="I223" s="4"/>
+      <c r="J223" s="4"/>
+      <c r="K223" s="4"/>
+      <c r="L223" s="4"/>
+      <c r="M223" s="4"/>
+      <c r="N223" s="4"/>
+      <c r="O223" s="4"/>
+      <c r="P223" s="6"/>
+    </row>
+    <row r="224" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B224" s="5"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H224" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="I224" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J224" s="4"/>
+      <c r="K224" s="4"/>
+      <c r="L224" s="4"/>
+      <c r="M224" s="4"/>
+      <c r="N224" s="4"/>
+      <c r="O224" s="4"/>
+      <c r="P224" s="6"/>
+    </row>
+    <row r="225" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B225" s="5"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H225" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="I225" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J225" s="4"/>
+      <c r="K225" s="4"/>
+      <c r="L225" s="4"/>
+      <c r="M225" s="4"/>
+      <c r="N225" s="4"/>
+      <c r="O225" s="4"/>
+      <c r="P225" s="6"/>
+    </row>
+    <row r="226" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B226" s="5"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4"/>
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+      <c r="H226" s="4"/>
+      <c r="I226" s="4"/>
+      <c r="J226" s="4"/>
+      <c r="K226" s="4"/>
+      <c r="L226" s="4"/>
+      <c r="M226" s="4"/>
+      <c r="N226" s="4"/>
+      <c r="O226" s="4"/>
+      <c r="P226" s="6"/>
+    </row>
+    <row r="227" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B227" s="5"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+      <c r="H227" s="4"/>
+      <c r="I227" s="4"/>
+      <c r="J227" s="4"/>
+      <c r="K227" s="4"/>
+      <c r="L227" s="4"/>
+      <c r="M227" s="4"/>
+      <c r="N227" s="4"/>
+      <c r="O227" s="4"/>
+      <c r="P227" s="6"/>
+    </row>
+    <row r="228" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B228" s="5"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+      <c r="H228" s="4"/>
+      <c r="I228" s="4"/>
+      <c r="J228" s="4"/>
+      <c r="K228" s="4"/>
+      <c r="L228" s="4"/>
+      <c r="M228" s="4"/>
+      <c r="N228" s="4"/>
+      <c r="O228" s="4"/>
+      <c r="P228" s="6"/>
+    </row>
+    <row r="229" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B229" s="5"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+      <c r="H229" s="4"/>
+      <c r="I229" s="4"/>
+      <c r="J229" s="4"/>
+      <c r="K229" s="4"/>
+      <c r="L229" s="4"/>
+      <c r="M229" s="4"/>
+      <c r="N229" s="4"/>
+      <c r="O229" s="4"/>
+      <c r="P229" s="6"/>
+    </row>
+    <row r="230" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B230" s="5"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+      <c r="H230" s="4"/>
+      <c r="I230" s="4"/>
+      <c r="J230" s="4"/>
+      <c r="K230" s="4"/>
+      <c r="L230" s="4"/>
+      <c r="M230" s="4"/>
+      <c r="N230" s="4"/>
+      <c r="O230" s="4"/>
+      <c r="P230" s="6"/>
+    </row>
+    <row r="231" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B231" s="5"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+      <c r="H231" s="4"/>
+      <c r="I231" s="4"/>
+      <c r="J231" s="4"/>
+      <c r="K231" s="4"/>
+      <c r="L231" s="4"/>
+      <c r="M231" s="4"/>
+      <c r="N231" s="4"/>
+      <c r="O231" s="4"/>
+      <c r="P231" s="6"/>
+    </row>
+    <row r="232" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B232" s="5"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
+      <c r="H232" s="4"/>
+      <c r="I232" s="4"/>
+      <c r="J232" s="4"/>
+      <c r="K232" s="4"/>
+      <c r="L232" s="4"/>
+      <c r="M232" s="4"/>
+      <c r="N232" s="4"/>
+      <c r="O232" s="4"/>
+      <c r="P232" s="6"/>
+    </row>
+    <row r="233" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B233" s="34"/>
+      <c r="C233" s="35"/>
+      <c r="D233" s="35"/>
+      <c r="E233" s="35"/>
+      <c r="F233" s="35"/>
+      <c r="G233" s="35"/>
+      <c r="H233" s="35"/>
+      <c r="I233" s="35"/>
+      <c r="J233" s="35"/>
+      <c r="K233" s="35"/>
+      <c r="L233" s="35"/>
+      <c r="M233" s="35"/>
+      <c r="N233" s="35"/>
+      <c r="O233" s="35"/>
+      <c r="P233" s="29"/>
+    </row>
+    <row r="234" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B234" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2"/>
+      <c r="N234" s="2"/>
+      <c r="O234" s="2"/>
+      <c r="P234" s="3"/>
+    </row>
+    <row r="235" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B235" s="5"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4"/>
+      <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
+      <c r="H235" s="4"/>
+      <c r="I235" s="4"/>
+      <c r="J235" s="4"/>
+      <c r="K235" s="4"/>
+      <c r="L235" s="4"/>
+      <c r="M235" s="4"/>
+      <c r="N235" s="4"/>
+      <c r="O235" s="4"/>
+      <c r="P235" s="6"/>
+    </row>
+    <row r="236" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B236" s="5"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
+      <c r="H236" s="4"/>
+      <c r="I236" s="4"/>
+      <c r="J236" s="4"/>
+      <c r="K236" s="4"/>
+      <c r="L236" s="4"/>
+      <c r="M236" s="4"/>
+      <c r="N236" s="4"/>
+      <c r="O236" s="4"/>
+      <c r="P236" s="6"/>
+    </row>
+    <row r="237" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B237" s="5"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
+      <c r="H237" s="4"/>
+      <c r="I237" s="4"/>
+      <c r="J237" s="4"/>
+      <c r="K237" s="4"/>
+      <c r="L237" s="4"/>
+      <c r="M237" s="4"/>
+      <c r="N237" s="4"/>
+      <c r="O237" s="4"/>
+      <c r="P237" s="6"/>
+    </row>
+    <row r="238" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B238" s="5"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+      <c r="H238" s="4"/>
+      <c r="I238" s="4"/>
+      <c r="J238" s="4"/>
+      <c r="K238" s="4"/>
+      <c r="L238" s="4"/>
+      <c r="M238" s="4"/>
+      <c r="N238" s="4"/>
+      <c r="O238" s="4"/>
+      <c r="P238" s="6"/>
+    </row>
+    <row r="239" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B239" s="5"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
+      <c r="H239" s="4"/>
+      <c r="I239" s="4"/>
+      <c r="J239" s="4"/>
+      <c r="K239" s="4"/>
+      <c r="L239" s="4"/>
+      <c r="M239" s="4"/>
+      <c r="N239" s="4"/>
+      <c r="O239" s="4"/>
+      <c r="P239" s="6"/>
+    </row>
+    <row r="240" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B240" s="5"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
+      <c r="G240" s="4"/>
+      <c r="H240" s="4"/>
+      <c r="I240" s="4"/>
+      <c r="J240" s="4"/>
+      <c r="K240" s="4"/>
+      <c r="L240" s="4"/>
+      <c r="M240" s="4"/>
+      <c r="N240" s="4"/>
+      <c r="O240" s="4"/>
+      <c r="P240" s="6"/>
+    </row>
+    <row r="241" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B241" s="34"/>
+      <c r="C241" s="35"/>
+      <c r="D241" s="35"/>
+      <c r="E241" s="35"/>
+      <c r="F241" s="35"/>
+      <c r="G241" s="35"/>
+      <c r="H241" s="35"/>
+      <c r="I241" s="35"/>
+      <c r="J241" s="35"/>
+      <c r="K241" s="35"/>
+      <c r="L241" s="35"/>
+      <c r="M241" s="35"/>
+      <c r="N241" s="35"/>
+      <c r="O241" s="35"/>
+      <c r="P241" s="29"/>
+    </row>
+    <row r="244" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C244" t="s">
         <v>401</v>
       </c>
     </row>
